--- a/exercicios/2.3.exercicios-livros/modelagem-livros.xlsx
+++ b/exercicios/2.3.exercicios-livros/modelagem-livros.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D210BC-258A-4A4F-AF3D-6774FC6E6A08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CDDF19-D3C1-40A3-8DBA-A63043A1F80B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="livros" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Livros</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Ativo</t>
-  </si>
-  <si>
-    <t>draw.</t>
   </si>
 </sst>
 </file>
@@ -225,45 +222,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -272,8 +242,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -288,6 +256,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -570,198 +574,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="F1" s="24" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="9"/>
+      <c r="F1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="26"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="13">
         <v>2</v>
       </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7">
-        <v>1</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="8">
-        <v>1</v>
-      </c>
-      <c r="J3" s="10">
+      <c r="I3" s="13">
+        <v>1</v>
+      </c>
+      <c r="J3" s="16">
         <v>28773</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="13">
         <v>2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="7">
+      <c r="E4" s="19"/>
+      <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="8">
-        <v>1</v>
-      </c>
-      <c r="J4" s="10">
+      <c r="I4" s="13">
+        <v>1</v>
+      </c>
+      <c r="J4" s="16">
         <v>36664</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13">
-        <v>1</v>
-      </c>
-      <c r="F5" s="14">
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="3">
         <v>3</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="14">
         <v>0</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="17">
         <v>7444</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="28"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
-        <v>1</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>2</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>3</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>22</v>
-      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
